--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H2">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I2">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J2">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.343932</v>
       </c>
       <c r="O2">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P2">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q2">
-        <v>14.21458887808267</v>
+        <v>12.49025556828134</v>
       </c>
       <c r="R2">
-        <v>127.931299902744</v>
+        <v>112.412300114532</v>
       </c>
       <c r="S2">
-        <v>0.02109452526192996</v>
+        <v>0.07655733432728239</v>
       </c>
       <c r="T2">
-        <v>0.03279200593447544</v>
+        <v>0.09941630169513056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H3">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I3">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J3">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N3">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O3">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P3">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q3">
-        <v>117.4876488743837</v>
+        <v>12.368124654391</v>
       </c>
       <c r="R3">
-        <v>704.9258932463022</v>
+        <v>74.20874792634601</v>
       </c>
       <c r="S3">
-        <v>0.1743522938582333</v>
+        <v>0.07580874938798435</v>
       </c>
       <c r="T3">
-        <v>0.1806902149221601</v>
+        <v>0.06562946639066039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I4">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J4">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>0.343932</v>
       </c>
       <c r="O4">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P4">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q4">
         <v>24.21603735357333</v>
@@ -700,10 +700,10 @@
         <v>217.94433618216</v>
       </c>
       <c r="S4">
-        <v>0.03593672782801544</v>
+        <v>0.1484289298665305</v>
       </c>
       <c r="T4">
-        <v>0.05586460835545225</v>
+        <v>0.1927477674289627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I5">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J5">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N5">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O5">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P5">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q5">
-        <v>200.1524854589633</v>
+        <v>23.97925062358</v>
       </c>
       <c r="R5">
-        <v>1200.91491275378</v>
+        <v>143.87550374148</v>
       </c>
       <c r="S5">
-        <v>0.2970273496451394</v>
+        <v>0.1469775775900888</v>
       </c>
       <c r="T5">
-        <v>0.3078246603900671</v>
+        <v>0.1272420408792327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H6">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I6">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J6">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.343932</v>
       </c>
       <c r="O6">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P6">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q6">
-        <v>8.900345629945335</v>
+        <v>12.51580799622134</v>
       </c>
       <c r="R6">
-        <v>80.103110669508</v>
+        <v>112.642271965992</v>
       </c>
       <c r="S6">
-        <v>0.01320816010516332</v>
+        <v>0.07671395448272934</v>
       </c>
       <c r="T6">
-        <v>0.02053243953935708</v>
+        <v>0.09961968647546902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H7">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I7">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J7">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N7">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O7">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P7">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q7">
-        <v>73.56390615306485</v>
+        <v>12.393427228246</v>
       </c>
       <c r="R7">
-        <v>441.383436918389</v>
+        <v>74.36056336947601</v>
       </c>
       <c r="S7">
-        <v>0.1091692267726976</v>
+        <v>0.07596383809656748</v>
       </c>
       <c r="T7">
-        <v>0.1131376629004027</v>
+        <v>0.06576373043365938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H8">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I8">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J8">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.343932</v>
       </c>
       <c r="O8">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P8">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q8">
-        <v>18.43278934201</v>
+        <v>18.893321913836</v>
       </c>
       <c r="R8">
-        <v>110.59673605206</v>
+        <v>113.359931483016</v>
       </c>
       <c r="S8">
-        <v>0.02735435711562491</v>
+        <v>0.1158040645688359</v>
       </c>
       <c r="T8">
-        <v>0.0283487217569887</v>
+        <v>0.1002543772965459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H9">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I9">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J9">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N9">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O9">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P9">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q9">
-        <v>152.3522840205887</v>
+        <v>18.708581204637</v>
       </c>
       <c r="R9">
-        <v>609.409136082355</v>
+        <v>74.834324818548</v>
       </c>
       <c r="S9">
-        <v>0.2260915972702075</v>
+        <v>0.1146717213464983</v>
       </c>
       <c r="T9">
-        <v>0.1562068705791951</v>
+        <v>0.06618272026933106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H10">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I10">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J10">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.343932</v>
       </c>
       <c r="O10">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P10">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q10">
-        <v>6.964917329362667</v>
+        <v>13.859878125632</v>
       </c>
       <c r="R10">
-        <v>62.684255964264</v>
+        <v>124.738903130688</v>
       </c>
       <c r="S10">
-        <v>0.01033597424530733</v>
+        <v>0.08495225078452111</v>
       </c>
       <c r="T10">
-        <v>0.0160675494983713</v>
+        <v>0.1103178247765167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H11">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I11">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J11">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N11">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O11">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P11">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q11">
-        <v>57.56703684149367</v>
+        <v>13.724354911344</v>
       </c>
       <c r="R11">
-        <v>345.402221048962</v>
+        <v>82.34612946806401</v>
       </c>
       <c r="S11">
-        <v>0.08542978789768121</v>
+        <v>0.08412157954896191</v>
       </c>
       <c r="T11">
-        <v>0.08853526612352992</v>
+        <v>0.07282608435449159</v>
       </c>
     </row>
   </sheetData>
